--- a/data/trans_bre/P38A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>4.223400181411718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.80203715963312</v>
+        <v>2.802037159633097</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.0137452215677387</v>
@@ -627,7 +627,7 @@
         <v>0.04949739860719756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03144751309831532</v>
+        <v>0.03144751309831508</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.755309526734197</v>
+        <v>-2.182654481545439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6691345273270098</v>
+        <v>0.4676961892795905</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.3822910511433122</v>
+        <v>-0.6761108572360252</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.0305305898435288</v>
+        <v>-0.02450519271068569</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.007607544912866394</v>
+        <v>0.005469051751438834</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.004191980022957111</v>
+        <v>-0.007301724335330918</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.832564179134667</v>
+        <v>4.45655263683513</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.864324734848975</v>
+        <v>7.851072634732666</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.190006214044097</v>
+        <v>7.080762612184774</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.05636703553495388</v>
+        <v>0.05221147747164687</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.09537217274354869</v>
+        <v>0.09490057947711802</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08471539991014451</v>
+        <v>0.0826396436216458</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>9.530407226274185</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6.0072587620984</v>
+        <v>6.007258762098411</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.06092771514452152</v>
@@ -709,7 +709,7 @@
         <v>0.1152979805168636</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07346122678648628</v>
+        <v>0.07346122678648644</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.157306910304467</v>
+        <v>1.878148075676675</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.646573926661086</v>
+        <v>6.828083015339111</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.598086034714</v>
+        <v>2.739706629238288</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02517610470263135</v>
+        <v>0.02184160698408661</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07858370452758381</v>
+        <v>0.08101304429457558</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03046382805559562</v>
+        <v>0.03247176007592906</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.039881019273336</v>
+        <v>8.313876319971461</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.377758269001</v>
+        <v>12.5693244312346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.761363142280482</v>
+        <v>9.708902737670254</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09825158789934937</v>
+        <v>0.1015551008590785</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1531461042584921</v>
+        <v>0.1554075543013153</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1222947455990093</v>
+        <v>0.1230050073867791</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>7.718503481753459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.392570806886745</v>
+        <v>7.392570806886734</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.06009330741197576</v>
@@ -791,7 +791,7 @@
         <v>0.09241528360641262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08918011250163767</v>
+        <v>0.08918011250163753</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.69513094195064</v>
+        <v>1.66532109297783</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.102686412462859</v>
+        <v>4.452698102176235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.283650810467336</v>
+        <v>3.3716646839713</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.01969928939204051</v>
+        <v>0.01915552981171551</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04747661985095398</v>
+        <v>0.05186217431024574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03846316347418781</v>
+        <v>0.03991496871849804</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.806782701950548</v>
+        <v>8.772958884142438</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.25110950719728</v>
+        <v>11.19607322808527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.69026693892422</v>
+        <v>12.05273296375452</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1073120519242655</v>
+        <v>0.1060579649518918</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1385014536385953</v>
+        <v>0.1378596234990515</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1461656215705968</v>
+        <v>0.1528280901891354</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.422285632174771</v>
+        <v>2.536522784101554</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08978439525257294</v>
+        <v>0.0944874261862447</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.744564846369586</v>
+        <v>2.971698655096575</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.02748823488296795</v>
+        <v>0.02891878309176077</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.001056991133872599</v>
+        <v>0.001125419932496493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03402604138357806</v>
+        <v>0.03628078950702125</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.042626728761192</v>
+        <v>7.957436601073757</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.24071611128999</v>
+        <v>6.616214462999699</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.34771516168095</v>
+        <v>10.51641111587098</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.09534508693773208</v>
+        <v>0.09515562369097909</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07660400022841012</v>
+        <v>0.08146104978463446</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1351624397161385</v>
+        <v>0.1380461717946471</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>6.253409758289708</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.800282771485388</v>
+        <v>5.800282771485399</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.05111239220890207</v>
@@ -955,7 +955,7 @@
         <v>0.07482222733938539</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0701586743447833</v>
+        <v>0.07015867434478343</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.686041726139248</v>
+        <v>2.696141471286937</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.491163496307815</v>
+        <v>4.740268154860114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.875714247329153</v>
+        <v>3.837317374366255</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.03124885947290334</v>
+        <v>0.03123658741638253</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05331151121123247</v>
+        <v>0.05596629533818654</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04630103102168881</v>
+        <v>0.0457177500979339</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.97725117756047</v>
+        <v>5.811846336029658</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.85121680211075</v>
+        <v>7.901474653758379</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.810623603556357</v>
+        <v>7.85935456672976</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.07070856088710172</v>
+        <v>0.06872917008827256</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09525535534439038</v>
+        <v>0.0953261129513384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09640586799154664</v>
+        <v>0.0967678009138741</v>
       </c>
     </row>
     <row r="19">
